--- a/database/sidis/expdata/9002.xlsx
+++ b/database/sidis/expdata/9002.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26230"/>
+  <workbookPr showInkAnnotation="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/TMD-PHENO/fitpack/database/sidis/expdata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
   <si>
     <t>Ebeam</t>
   </si>
@@ -66,32 +79,22 @@
   <si>
     <t>clas</t>
   </si>
+  <si>
+    <t>dependence</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -111,7 +114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -194,75 +197,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -388,7 +453,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -397,7 +462,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -406,7 +471,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -480,7 +545,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -488,7 +553,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -507,7 +572,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -537,7 +602,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -563,7 +628,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -589,7 +654,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -615,7 +680,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -641,7 +706,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -667,7 +732,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -693,7 +758,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -719,7 +784,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -745,7 +810,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -758,9 +823,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -775,7 +846,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -783,7 +854,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -802,7 +873,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -828,7 +899,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -854,7 +925,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -880,7 +951,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -906,7 +977,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -932,7 +1003,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -958,7 +1029,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -984,7 +1055,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1010,7 +1081,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1036,7 +1107,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1049,9 +1120,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1065,7 +1142,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1084,7 +1161,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1114,7 +1191,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1140,7 +1217,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1166,7 +1243,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1192,7 +1269,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1218,7 +1295,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1244,7 +1321,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1270,7 +1347,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1296,7 +1373,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1322,7 +1399,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1335,181 +1412,185 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83594" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83594" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83594" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83594" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.83594" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83594" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83594" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83594" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83594" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83594" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83594" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.83594" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.83594" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83594" style="1" customWidth="1"/>
-    <col min="15" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="256" width="8.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="4">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="4">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="4">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="5">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="5">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="5">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="5">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" ht="15.15" customHeight="1">
+    <row r="2" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>5.7</v>
       </c>
       <c r="B2" s="6">
-        <v>0.269</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="C2" s="6">
         <v>1.673</v>
       </c>
       <c r="D2" s="6">
-        <v>0.523</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="E2" s="6">
-        <f>C2/(2*0.938*A2*B2)</f>
-        <v>0.5816154991039715</v>
+        <f t="shared" ref="E2:E9" si="0">C2/(2*0.938*A2*B2)</f>
+        <v>0.58161549910397148</v>
       </c>
       <c r="F2" s="7">
-        <v>0.062</v>
-      </c>
-      <c r="G2" t="s" s="8">
+        <v>6.2E-2</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="7">
         <v>0.2676847</v>
       </c>
       <c r="I2" s="7">
-        <v>0.1007882</v>
+        <v>0.10078819999999999</v>
       </c>
       <c r="J2" s="9">
-        <v>0.026</v>
-      </c>
-      <c r="K2" t="s" s="2">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="L2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="M2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" t="s" s="2">
+      <c r="N2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="O2" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" ht="15.15" customHeight="1">
+    <row r="3" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>5.7</v>
       </c>
       <c r="B3" s="6">
-        <v>0.265</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="C3" s="6">
         <v>1.663</v>
       </c>
       <c r="D3" s="6">
-        <v>0.518</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="E3" s="6">
-        <f>C3/(2*0.938*A3*B3)</f>
-        <v>0.5868656434101305</v>
+        <f t="shared" si="0"/>
+        <v>0.58686564341013048</v>
       </c>
       <c r="F3" s="6">
         <v>0.188</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="6">
         <v>0.3044732</v>
       </c>
       <c r="I3" s="10">
-        <v>0.05587475</v>
+        <v>5.5874750000000001E-2</v>
       </c>
       <c r="J3" s="10">
         <v>0.02</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="L3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="M3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N3" t="s" s="2">
+      <c r="N3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="O3" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" ht="15.15" customHeight="1">
+    <row r="4" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>5.7</v>
       </c>
       <c r="B4" s="6">
-        <v>0.257</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="C4" s="6">
         <v>1.667</v>
@@ -1518,38 +1599,41 @@
         <v>0.504</v>
       </c>
       <c r="E4" s="6">
-        <f>C4/(2*0.938*A4*B4)</f>
-        <v>0.6065893579992143</v>
+        <f t="shared" si="0"/>
+        <v>0.60658935799921432</v>
       </c>
       <c r="F4" s="6">
         <v>0.312</v>
       </c>
-      <c r="G4" t="s" s="2">
+      <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="6">
-        <v>0.2668712</v>
+        <v>0.26687119999999998</v>
       </c>
       <c r="I4" s="10">
-        <v>0.04301636</v>
+        <v>4.3016359999999997E-2</v>
       </c>
       <c r="J4" s="10">
         <v>0.02</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="K4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="M4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N4" t="s" s="2">
+      <c r="N4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="O4" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" ht="15.15" customHeight="1">
+    <row r="5" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>5.7</v>
       </c>
@@ -1557,89 +1641,95 @@
         <v>0.252</v>
       </c>
       <c r="C5" s="6">
-        <v>1.658</v>
+        <v>1.6579999999999999</v>
       </c>
       <c r="D5" s="6">
         <v>0.499</v>
       </c>
       <c r="E5" s="6">
-        <f>C5/(2*0.938*A5*B5)</f>
-        <v>0.6152849548652489</v>
+        <f t="shared" si="0"/>
+        <v>0.61528495486524892</v>
       </c>
       <c r="F5" s="6">
         <v>0.438</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="6">
-        <v>0.3181575</v>
+        <v>0.31815749999999998</v>
       </c>
       <c r="I5" s="10">
-        <v>0.04229988</v>
+        <v>4.2299879999999998E-2</v>
       </c>
       <c r="J5" s="10">
         <v>0.02</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="K5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="L5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="M5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N5" t="s" s="2">
+      <c r="N5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="O5" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" ht="15.15" customHeight="1">
+    <row r="6" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>5.7</v>
       </c>
       <c r="B6" s="6">
-        <v>0.242</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="C6" s="6">
-        <v>1.666</v>
+        <v>1.6659999999999999</v>
       </c>
       <c r="D6" s="6">
-        <v>0.493</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="E6" s="6">
-        <f>C6/(2*0.938*A6*B6)</f>
-        <v>0.6438014364887178</v>
+        <f t="shared" si="0"/>
+        <v>0.64380143648871779</v>
       </c>
       <c r="F6" s="6">
-        <v>0.5620000000000001</v>
-      </c>
-      <c r="G6" t="s" s="2">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H6" s="6">
-        <v>0.2676315</v>
+        <v>0.26763150000000002</v>
       </c>
       <c r="I6" s="10">
-        <v>0.05099931</v>
+        <v>5.0999309999999999E-2</v>
       </c>
       <c r="J6" s="10">
-        <v>0.022</v>
-      </c>
-      <c r="K6" t="s" s="2">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="L6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="M6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N6" t="s" s="2">
+      <c r="N6" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="O6" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" ht="15.15" customHeight="1">
+    <row r="7" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>5.7</v>
       </c>
@@ -1647,134 +1737,143 @@
         <v>0.218</v>
       </c>
       <c r="C7" s="6">
-        <v>1.652</v>
+        <v>1.6519999999999999</v>
       </c>
       <c r="D7" s="6">
-        <v>0.492</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="E7" s="6">
-        <f>C7/(2*0.938*A7*B7)</f>
-        <v>0.7086729558388646</v>
+        <f t="shared" si="0"/>
+        <v>0.70867295583886458</v>
       </c>
       <c r="F7" s="6">
-        <v>0.6879999999999999</v>
-      </c>
-      <c r="G7" t="s" s="2">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H7" s="6">
-        <v>0.3037565</v>
+        <v>0.30375649999999998</v>
       </c>
       <c r="I7" s="10">
-        <v>0.07128238000000001</v>
+        <v>7.1282380000000006E-2</v>
       </c>
       <c r="J7" s="10">
-        <v>0.025</v>
-      </c>
-      <c r="K7" t="s" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="L7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="M7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N7" t="s" s="2">
+      <c r="N7" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="O7" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" ht="15.15" customHeight="1">
+    <row r="8" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5.7</v>
       </c>
       <c r="B8" s="6">
-        <v>0.206</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="C8" s="6">
-        <v>1.729</v>
+        <v>1.7290000000000001</v>
       </c>
       <c r="D8" s="6">
-        <v>0.492</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="E8" s="6">
-        <f>C8/(2*0.938*A8*B8)</f>
-        <v>0.7849103994590158</v>
+        <f t="shared" si="0"/>
+        <v>0.78491039945901575</v>
       </c>
       <c r="F8" s="6">
-        <v>0.8120000000000001</v>
-      </c>
-      <c r="G8" t="s" s="2">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H8" s="6">
-        <v>0.3247496</v>
+        <v>0.32474960000000003</v>
       </c>
       <c r="I8" s="6">
-        <v>0.1505325</v>
+        <v>0.15053250000000001</v>
       </c>
       <c r="J8" s="10">
-        <v>0.033</v>
-      </c>
-      <c r="K8" t="s" s="2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="L8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="M8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N8" t="s" s="2">
+      <c r="N8" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="O8" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" ht="15.15" customHeight="1">
+    <row r="9" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>5.7</v>
       </c>
       <c r="B9" s="6">
-        <v>0.175</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="C9" s="6">
-        <v>1.563</v>
+        <v>1.5629999999999999</v>
       </c>
       <c r="D9" s="6">
         <v>0.502</v>
       </c>
       <c r="E9" s="6">
-        <f>C9/(2*0.938*A9*B9)</f>
-        <v>0.8352437597191273</v>
+        <f t="shared" si="0"/>
+        <v>0.83524375971912734</v>
       </c>
       <c r="F9" s="6">
-        <v>0.9379999999999999</v>
-      </c>
-      <c r="G9" t="s" s="2">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="6">
-        <v>0.1587752</v>
+        <v>0.15877520000000001</v>
       </c>
       <c r="I9" s="6">
-        <v>0.167281</v>
+        <v>0.16728100000000001</v>
       </c>
       <c r="J9" s="10">
-        <v>0.044</v>
-      </c>
-      <c r="K9" t="s" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="L9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="M9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N9" t="s" s="2">
+      <c r="N9" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="O9" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="10" ht="15.15" customHeight="1">
+    <row r="10" spans="1:15" ht="15.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1792,7 +1891,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
